--- a/app/views/calendars/excels/3month01.xlsx
+++ b/app/views/calendars/excels/3month01.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05346693-0832-4710-9B03-BB8E958F4B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C03739-C29C-47AE-A208-E76305438D1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6684" yWindow="2916" windowWidth="23652" windowHeight="18384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14376" yWindow="5112" windowWidth="23652" windowHeight="18384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3Month" sheetId="6" r:id="rId1"/>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -314,6 +314,12 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -712,13 +718,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -740,35 +750,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1347,7 +1353,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,51 +1406,51 @@
       <c r="I4" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="49">
         <v>2021</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="51">
         <f>YEAR(DATE(A6,C6+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="20">
         <f>MONTH(DATE(A6,C6+1,1))</f>
         <v>2</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="53">
         <f>YEAR(DATE(D6,F6+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="20">
         <f>MONTH(DATE(D6,F6+1,1))</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="str">
+      <c r="A7" s="55" t="str">
         <f>IF(ISNA(VLOOKUP(A8,休日,3,FALSE)),"",VLOOKUP(A8,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="60" t="str">
+      <c r="B7" s="56"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="47" t="str">
         <f>IF(ISNA(VLOOKUP(D8,休日,3,FALSE)),"",VLOOKUP(D8,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="60" t="str">
+      <c r="E7" s="48"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="47" t="str">
         <f>IF(ISNA(VLOOKUP(G8,休日,3,FALSE)),"",VLOOKUP(G8,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="46"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
@@ -1455,7 +1461,7 @@
         <f>TEXT(A8,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="32">
         <f>DATE(D$6,F$6,1)</f>
         <v>44228</v>
@@ -1464,7 +1470,7 @@
         <f>TEXT(D8,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="32">
         <f>DATE(G$6,I$6,1)</f>
         <v>44256</v>
@@ -1473,27 +1479,27 @@
         <f>TEXT(G8,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="I8" s="53"/>
+      <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="str">
+      <c r="A9" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A10,休日,3,FALSE)),"",VLOOKUP(A10,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="54" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D10,休日,3,FALSE)),"",VLOOKUP(D10,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="54" t="str">
+      <c r="E9" s="46"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G10,休日,3,FALSE)),"",VLOOKUP(G10,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
@@ -1504,7 +1510,7 @@
         <f>TEXT(A10,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="30">
         <f>D8+1</f>
         <v>44229</v>
@@ -1513,7 +1519,7 @@
         <f>TEXT(D10,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="30">
         <f>G8+1</f>
         <v>44257</v>
@@ -1522,27 +1528,27 @@
         <f>TEXT(G10,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="I10" s="53"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="str">
+      <c r="A11" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A12,休日,3,FALSE)),"",VLOOKUP(A12,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="54" t="str">
+      <c r="B11" s="46"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D12,休日,3,FALSE)),"",VLOOKUP(D12,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="54" t="str">
+      <c r="E11" s="46"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G12,休日,3,FALSE)),"",VLOOKUP(G12,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="57"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
@@ -1553,7 +1559,7 @@
         <f>TEXT(A12,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="30">
         <f>D10+1</f>
         <v>44230</v>
@@ -1562,7 +1568,7 @@
         <f>TEXT(D12,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="30">
         <f>G10+1</f>
         <v>44258</v>
@@ -1571,27 +1577,27 @@
         <f>TEXT(G12,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="str">
+      <c r="A13" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A14,休日,3,FALSE)),"",VLOOKUP(A14,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="54" t="str">
+      <c r="B13" s="46"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D14,休日,3,FALSE)),"",VLOOKUP(D14,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="54" t="str">
+      <c r="E13" s="46"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G14,休日,3,FALSE)),"",VLOOKUP(G14,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="57"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
@@ -1602,7 +1608,7 @@
         <f>TEXT(A14,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="30">
         <f>D12+1</f>
         <v>44231</v>
@@ -1611,7 +1617,7 @@
         <f>TEXT(D14,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="30">
         <f>G12+1</f>
         <v>44259</v>
@@ -1620,27 +1626,27 @@
         <f>TEXT(G14,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="I14" s="53"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="str">
+      <c r="A15" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A16,休日,3,FALSE)),"",VLOOKUP(A16,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="54" t="str">
+      <c r="B15" s="46"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D16,休日,3,FALSE)),"",VLOOKUP(D16,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="54" t="str">
+      <c r="E15" s="46"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G16,休日,3,FALSE)),"",VLOOKUP(G16,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
@@ -1651,7 +1657,7 @@
         <f>TEXT(A16,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="30">
         <f>D14+1</f>
         <v>44232</v>
@@ -1660,7 +1666,7 @@
         <f>TEXT(D16,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="30">
         <f>G14+1</f>
         <v>44260</v>
@@ -1669,27 +1675,27 @@
         <f>TEXT(G16,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="I16" s="53"/>
+      <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="str">
+      <c r="A17" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A18,休日,3,FALSE)),"",VLOOKUP(A18,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="54" t="str">
+      <c r="B17" s="46"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D18,休日,3,FALSE)),"",VLOOKUP(D18,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="54" t="str">
+      <c r="E17" s="46"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G18,休日,3,FALSE)),"",VLOOKUP(G18,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="57"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
@@ -1700,7 +1706,7 @@
         <f>TEXT(A18,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="30">
         <f>D16+1</f>
         <v>44233</v>
@@ -1709,7 +1715,7 @@
         <f>TEXT(D18,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="30">
         <f>G16+1</f>
         <v>44261</v>
@@ -1718,27 +1724,27 @@
         <f>TEXT(G18,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="I18" s="53"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="str">
+      <c r="A19" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A20,休日,3,FALSE)),"",VLOOKUP(A20,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="54" t="str">
+      <c r="B19" s="46"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D20,休日,3,FALSE)),"",VLOOKUP(D20,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="54" t="str">
+      <c r="E19" s="46"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G20,休日,3,FALSE)),"",VLOOKUP(G20,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
@@ -1749,7 +1755,7 @@
         <f>TEXT(A20,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="30">
         <f>D18+1</f>
         <v>44234</v>
@@ -1758,7 +1764,7 @@
         <f>TEXT(D20,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="30">
         <f>G18+1</f>
         <v>44262</v>
@@ -1767,27 +1773,27 @@
         <f>TEXT(G20,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="I20" s="53"/>
+      <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="str">
+      <c r="A21" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A22,休日,3,FALSE)),"",VLOOKUP(A22,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="54" t="str">
+      <c r="B21" s="46"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D22,休日,3,FALSE)),"",VLOOKUP(D22,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="54" t="str">
+      <c r="E21" s="46"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G22,休日,3,FALSE)),"",VLOOKUP(G22,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
@@ -1798,7 +1804,7 @@
         <f>TEXT(A22,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="30">
         <f>D20+1</f>
         <v>44235</v>
@@ -1807,7 +1813,7 @@
         <f>TEXT(D22,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="30">
         <f>G20+1</f>
         <v>44263</v>
@@ -1816,27 +1822,27 @@
         <f>TEXT(G22,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="I22" s="53"/>
+      <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="str">
+      <c r="A23" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A24,休日,3,FALSE)),"",VLOOKUP(A24,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="54" t="str">
+      <c r="B23" s="46"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D24,休日,3,FALSE)),"",VLOOKUP(D24,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="54" t="str">
+      <c r="E23" s="46"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G24,休日,3,FALSE)),"",VLOOKUP(G24,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
@@ -1847,7 +1853,7 @@
         <f>TEXT(A24,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="30">
         <f>D22+1</f>
         <v>44236</v>
@@ -1856,7 +1862,7 @@
         <f>TEXT(D24,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="30">
         <f>G22+1</f>
         <v>44264</v>
@@ -1865,27 +1871,27 @@
         <f>TEXT(G24,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="I24" s="53"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="str">
+      <c r="A25" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A26,休日,3,FALSE)),"",VLOOKUP(A26,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="54" t="str">
+      <c r="B25" s="46"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D26,休日,3,FALSE)),"",VLOOKUP(D26,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="54" t="str">
+      <c r="E25" s="46"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G26,休日,3,FALSE)),"",VLOOKUP(G26,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
@@ -1896,7 +1902,7 @@
         <f>TEXT(A26,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="30">
         <f>D24+1</f>
         <v>44237</v>
@@ -1905,7 +1911,7 @@
         <f>TEXT(D26,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="30">
         <f>G24+1</f>
         <v>44265</v>
@@ -1914,27 +1920,27 @@
         <f>TEXT(G26,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="str">
+      <c r="A27" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A28,休日,3,FALSE)),"",VLOOKUP(A28,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="54" t="str">
+      <c r="B27" s="46"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D28,休日,3,FALSE)),"",VLOOKUP(D28,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="54" t="str">
+      <c r="E27" s="46"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G28,休日,3,FALSE)),"",VLOOKUP(G28,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
@@ -1945,7 +1951,7 @@
         <f>TEXT(A28,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="30">
         <f>D26+1</f>
         <v>44238</v>
@@ -1954,7 +1960,7 @@
         <f>TEXT(D28,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="30">
         <f>G26+1</f>
         <v>44266</v>
@@ -1963,27 +1969,27 @@
         <f>TEXT(G28,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="str">
+      <c r="A29" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A30,休日,3,FALSE)),"",VLOOKUP(A30,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="54" t="str">
+      <c r="B29" s="46"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D30,休日,3,FALSE)),"",VLOOKUP(D30,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="54" t="str">
+      <c r="E29" s="46"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G30,休日,3,FALSE)),"",VLOOKUP(G30,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
@@ -1994,7 +2000,7 @@
         <f>TEXT(A30,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="C30" s="53"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="30">
         <f>D28+1</f>
         <v>44239</v>
@@ -2003,7 +2009,7 @@
         <f>TEXT(D30,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="30">
         <f>G28+1</f>
         <v>44267</v>
@@ -2012,27 +2018,27 @@
         <f>TEXT(G30,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="I30" s="53"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="str">
+      <c r="A31" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A32,休日,3,FALSE)),"",VLOOKUP(A32,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="54" t="str">
+      <c r="B31" s="46"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D32,休日,3,FALSE)),"",VLOOKUP(D32,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="54" t="str">
+      <c r="E31" s="46"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G32,休日,3,FALSE)),"",VLOOKUP(G32,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
@@ -2043,7 +2049,7 @@
         <f>TEXT(A32,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="30">
         <f>D30+1</f>
         <v>44240</v>
@@ -2052,7 +2058,7 @@
         <f>TEXT(D32,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="30">
         <f>G30+1</f>
         <v>44268</v>
@@ -2061,27 +2067,27 @@
         <f>TEXT(G32,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="I32" s="53"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="str">
+      <c r="A33" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A34,休日,3,FALSE)),"",VLOOKUP(A34,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="54" t="str">
+      <c r="B33" s="46"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D34,休日,3,FALSE)),"",VLOOKUP(D34,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="54" t="str">
+      <c r="E33" s="46"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G34,休日,3,FALSE)),"",VLOOKUP(G34,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
@@ -2092,7 +2098,7 @@
         <f>TEXT(A34,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="30">
         <f>D32+1</f>
         <v>44241</v>
@@ -2101,7 +2107,7 @@
         <f>TEXT(D34,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="F34" s="53"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="30">
         <f>G32+1</f>
         <v>44269</v>
@@ -2110,27 +2116,27 @@
         <f>TEXT(G34,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="I34" s="53"/>
+      <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="str">
+      <c r="A35" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A36,休日,3,FALSE)),"",VLOOKUP(A36,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="54" t="str">
+      <c r="B35" s="46"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D36,休日,3,FALSE)),"",VLOOKUP(D36,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="54" t="str">
+      <c r="E35" s="46"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G36,休日,3,FALSE)),"",VLOOKUP(G36,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="45"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="57"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
@@ -2141,7 +2147,7 @@
         <f>TEXT(A36,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="30">
         <f>D34+1</f>
         <v>44242</v>
@@ -2150,7 +2156,7 @@
         <f>TEXT(D36,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="30">
         <f>G34+1</f>
         <v>44270</v>
@@ -2159,27 +2165,27 @@
         <f>TEXT(G36,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="I36" s="53"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="str">
+      <c r="A37" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A38,休日,3,FALSE)),"",VLOOKUP(A38,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="54" t="str">
+      <c r="B37" s="46"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D38,休日,3,FALSE)),"",VLOOKUP(D38,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="54" t="str">
+      <c r="E37" s="46"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G38,休日,3,FALSE)),"",VLOOKUP(G38,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="45"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="57"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
@@ -2190,7 +2196,7 @@
         <f>TEXT(A38,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="C38" s="53"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="30">
         <f>D36+1</f>
         <v>44243</v>
@@ -2199,7 +2205,7 @@
         <f>TEXT(D38,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="30">
         <f>G36+1</f>
         <v>44271</v>
@@ -2208,27 +2214,27 @@
         <f>TEXT(G38,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="I38" s="53"/>
+      <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="str">
+      <c r="A39" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A40,休日,3,FALSE)),"",VLOOKUP(A40,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="54" t="str">
+      <c r="B39" s="46"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D40,休日,3,FALSE)),"",VLOOKUP(D40,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="54" t="str">
+      <c r="E39" s="46"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G40,休日,3,FALSE)),"",VLOOKUP(G40,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="57"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
@@ -2239,7 +2245,7 @@
         <f>TEXT(A40,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="30">
         <f>D38+1</f>
         <v>44244</v>
@@ -2248,7 +2254,7 @@
         <f>TEXT(D40,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="30">
         <f>G38+1</f>
         <v>44272</v>
@@ -2257,27 +2263,27 @@
         <f>TEXT(G40,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="I40" s="53"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="str">
+      <c r="A41" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A42,休日,3,FALSE)),"",VLOOKUP(A42,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="54" t="str">
+      <c r="B41" s="46"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D42,休日,3,FALSE)),"",VLOOKUP(D42,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="54" t="str">
+      <c r="E41" s="46"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G42,休日,3,FALSE)),"",VLOOKUP(G42,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="45"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
@@ -2288,7 +2294,7 @@
         <f>TEXT(A42,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="C42" s="53"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="30">
         <f>D40+1</f>
         <v>44245</v>
@@ -2297,7 +2303,7 @@
         <f>TEXT(D42,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="30">
         <f>G40+1</f>
         <v>44273</v>
@@ -2306,27 +2312,27 @@
         <f>TEXT(G42,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="I42" s="53"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54" t="str">
+      <c r="A43" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A44,休日,3,FALSE)),"",VLOOKUP(A44,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="54" t="str">
+      <c r="B43" s="46"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D44,休日,3,FALSE)),"",VLOOKUP(D44,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="54" t="str">
+      <c r="E43" s="46"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G44,休日,3,FALSE)),"",VLOOKUP(G44,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="45"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="57"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
@@ -2337,7 +2343,7 @@
         <f>TEXT(A44,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="30">
         <f>D42+1</f>
         <v>44246</v>
@@ -2346,7 +2352,7 @@
         <f>TEXT(D44,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="30">
         <f>G42+1</f>
         <v>44274</v>
@@ -2355,27 +2361,27 @@
         <f>TEXT(G44,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="I44" s="53"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="str">
+      <c r="A45" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A46,休日,3,FALSE)),"",VLOOKUP(A46,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="54" t="str">
+      <c r="B45" s="46"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D46,休日,3,FALSE)),"",VLOOKUP(D46,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="54" t="str">
+      <c r="E45" s="46"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G46,休日,3,FALSE)),"",VLOOKUP(G46,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="45"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="57"/>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
@@ -2386,7 +2392,7 @@
         <f>TEXT(A46,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="30">
         <f>D44+1</f>
         <v>44247</v>
@@ -2395,7 +2401,7 @@
         <f>TEXT(D46,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="F46" s="53"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="30">
         <f>G44+1</f>
         <v>44275</v>
@@ -2404,27 +2410,27 @@
         <f>TEXT(G46,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="I46" s="53"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="str">
+      <c r="A47" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A48,休日,3,FALSE)),"",VLOOKUP(A48,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="54" t="str">
+      <c r="B47" s="46"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D48,休日,3,FALSE)),"",VLOOKUP(D48,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="54" t="str">
+      <c r="E47" s="46"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G48,休日,3,FALSE)),"",VLOOKUP(G48,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H47" s="55"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="57"/>
     </row>
     <row r="48" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
@@ -2435,7 +2441,7 @@
         <f>TEXT(A48,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="30">
         <f>D46+1</f>
         <v>44248</v>
@@ -2444,7 +2450,7 @@
         <f>TEXT(D48,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="F48" s="53"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="30">
         <f>G46+1</f>
         <v>44276</v>
@@ -2453,27 +2459,27 @@
         <f>TEXT(G48,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="I48" s="53"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="str">
+      <c r="A49" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A50,休日,3,FALSE)),"",VLOOKUP(A50,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="54" t="str">
+      <c r="B49" s="46"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D50,休日,3,FALSE)),"",VLOOKUP(D50,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E49" s="55"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="54" t="str">
+      <c r="E49" s="46"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G50,休日,3,FALSE)),"",VLOOKUP(G50,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H49" s="55"/>
-      <c r="I49" s="45"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="57"/>
     </row>
     <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
@@ -2484,7 +2490,7 @@
         <f>TEXT(A50,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="30">
         <f>D48+1</f>
         <v>44249</v>
@@ -2493,7 +2499,7 @@
         <f>TEXT(D50,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="30">
         <f>G48+1</f>
         <v>44277</v>
@@ -2502,27 +2508,27 @@
         <f>TEXT(G50,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="I50" s="53"/>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="str">
+      <c r="A51" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A52,休日,3,FALSE)),"",VLOOKUP(A52,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="54" t="str">
+      <c r="B51" s="46"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D52,休日,3,FALSE)),"",VLOOKUP(D52,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="54" t="str">
+      <c r="E51" s="46"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G52,休日,3,FALSE)),"",VLOOKUP(G52,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H51" s="55"/>
-      <c r="I51" s="45"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="57"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
@@ -2533,7 +2539,7 @@
         <f>TEXT(A52,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="30">
         <f>D50+1</f>
         <v>44250</v>
@@ -2542,7 +2548,7 @@
         <f>TEXT(D52,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="30">
         <f>G50+1</f>
         <v>44278</v>
@@ -2551,27 +2557,27 @@
         <f>TEXT(G52,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="I52" s="53"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="str">
+      <c r="A53" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A54,休日,3,FALSE)),"",VLOOKUP(A54,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="54" t="str">
+      <c r="B53" s="46"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D54,休日,3,FALSE)),"",VLOOKUP(D54,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E53" s="55"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="54" t="str">
+      <c r="E53" s="46"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G54,休日,3,FALSE)),"",VLOOKUP(G54,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="45"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="57"/>
     </row>
     <row r="54" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
@@ -2582,7 +2588,7 @@
         <f>TEXT(A54,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="30">
         <f>D52+1</f>
         <v>44251</v>
@@ -2591,7 +2597,7 @@
         <f>TEXT(D54,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="F54" s="53"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="30">
         <f>G52+1</f>
         <v>44279</v>
@@ -2600,27 +2606,27 @@
         <f>TEXT(G54,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="I54" s="53"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="str">
+      <c r="A55" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A56,休日,3,FALSE)),"",VLOOKUP(A56,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="54" t="str">
+      <c r="B55" s="46"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D56,休日,3,FALSE)),"",VLOOKUP(D56,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E55" s="55"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="54" t="str">
+      <c r="E55" s="46"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G56,休日,3,FALSE)),"",VLOOKUP(G56,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="45"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="57"/>
     </row>
     <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
@@ -2631,7 +2637,7 @@
         <f>TEXT(A56,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="30">
         <f>D54+1</f>
         <v>44252</v>
@@ -2640,7 +2646,7 @@
         <f>TEXT(D56,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="30">
         <f>G54+1</f>
         <v>44280</v>
@@ -2649,27 +2655,27 @@
         <f>TEXT(G56,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="I56" s="53"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="str">
+      <c r="A57" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A58,休日,3,FALSE)),"",VLOOKUP(A58,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="54" t="str">
+      <c r="B57" s="46"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D58,休日,3,FALSE)),"",VLOOKUP(D58,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="54" t="str">
+      <c r="E57" s="46"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G58,休日,3,FALSE)),"",VLOOKUP(G58,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H57" s="55"/>
-      <c r="I57" s="45"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="57"/>
     </row>
     <row r="58" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
@@ -2680,7 +2686,7 @@
         <f>TEXT(A58,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="C58" s="53"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="30">
         <f>D56+1</f>
         <v>44253</v>
@@ -2689,7 +2695,7 @@
         <f>TEXT(D58,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="F58" s="53"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="30">
         <f>G56+1</f>
         <v>44281</v>
@@ -2698,27 +2704,27 @@
         <f>TEXT(G58,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="I58" s="53"/>
+      <c r="I58" s="58"/>
     </row>
     <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="str">
+      <c r="A59" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A60,休日,3,FALSE)),"",VLOOKUP(A60,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="54" t="str">
+      <c r="B59" s="46"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D60,休日,3,FALSE)),"",VLOOKUP(D60,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="54" t="str">
+      <c r="E59" s="46"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G60,休日,3,FALSE)),"",VLOOKUP(G60,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H59" s="55"/>
-      <c r="I59" s="45"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="57"/>
     </row>
     <row r="60" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
@@ -2729,7 +2735,7 @@
         <f>TEXT(A60,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="30">
         <f>D58+1</f>
         <v>44254</v>
@@ -2738,7 +2744,7 @@
         <f>TEXT(D60,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="F60" s="53"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="30">
         <f>G58+1</f>
         <v>44282</v>
@@ -2747,27 +2753,27 @@
         <f>TEXT(G60,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="I60" s="53"/>
+      <c r="I60" s="58"/>
     </row>
     <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="str">
+      <c r="A61" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A62,休日,3,FALSE)),"",VLOOKUP(A62,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="54" t="str">
+      <c r="B61" s="46"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D62,休日,3,FALSE)),"",VLOOKUP(D62,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="54" t="str">
+      <c r="E61" s="46"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G62,休日,3,FALSE)),"",VLOOKUP(G62,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="45"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="57"/>
     </row>
     <row r="62" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
@@ -2778,7 +2784,7 @@
         <f>TEXT(A62,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="C62" s="53"/>
+      <c r="C62" s="58"/>
       <c r="D62" s="30">
         <f>D60+1</f>
         <v>44255</v>
@@ -2787,7 +2793,7 @@
         <f>TEXT(D62,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="30">
         <f>G60+1</f>
         <v>44283</v>
@@ -2796,27 +2802,27 @@
         <f>TEXT(G62,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="I62" s="53"/>
+      <c r="I62" s="58"/>
     </row>
     <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54" t="str">
+      <c r="A63" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A64,休日,3,FALSE)),"",VLOOKUP(A64,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="54" t="str">
+      <c r="B63" s="46"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D64,休日,3,FALSE)),"",VLOOKUP(D64,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="54" t="str">
+      <c r="E63" s="46"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G64,休日,3,FALSE)),"",VLOOKUP(G64,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="45"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="57"/>
     </row>
     <row r="64" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
@@ -2827,7 +2833,7 @@
         <f>TEXT(A64,"aaa")</f>
         <v>金</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="30">
         <f>D62+1</f>
         <v>44256</v>
@@ -2836,7 +2842,7 @@
         <f>TEXT(D64,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="F64" s="53"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="30">
         <f>G62+1</f>
         <v>44284</v>
@@ -2845,27 +2851,27 @@
         <f>TEXT(G64,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="I64" s="53"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="str">
+      <c r="A65" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A66,休日,3,FALSE)),"",VLOOKUP(A66,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="54" t="str">
+      <c r="B65" s="46"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D66,休日,3,FALSE)),"",VLOOKUP(D66,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="54" t="str">
+      <c r="E65" s="46"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G66,休日,3,FALSE)),"",VLOOKUP(G66,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="45"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="57"/>
     </row>
     <row r="66" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
@@ -2876,7 +2882,7 @@
         <f>TEXT(A66,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="C66" s="46"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="30">
         <f>D64+1</f>
         <v>44257</v>
@@ -2885,7 +2891,7 @@
         <f>TEXT(D66,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="F66" s="59"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="30">
         <f>G64+1</f>
         <v>44285</v>
@@ -2894,27 +2900,27 @@
         <f>TEXT(G66,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="I66" s="53"/>
+      <c r="I66" s="58"/>
     </row>
     <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="str">
+      <c r="A67" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(A68,休日,3,FALSE)),"",VLOOKUP(A68,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="54" t="str">
+      <c r="B67" s="46"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(D68,休日,3,FALSE)),"",VLOOKUP(D68,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="54" t="str">
+      <c r="E67" s="46"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="45" t="str">
         <f>IF(ISNA(VLOOKUP(G68,休日,3,FALSE)),"",VLOOKUP(G68,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H67" s="55"/>
-      <c r="I67" s="45"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
@@ -2925,7 +2931,7 @@
         <f>TEXT(A68,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="C68" s="46"/>
+      <c r="C68" s="59"/>
       <c r="D68" s="34">
         <f>D66+1</f>
         <v>44258</v>
@@ -2934,7 +2940,7 @@
         <f>TEXT(D68,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="34">
         <f>G66+1</f>
         <v>44286</v>
@@ -2943,7 +2949,7 @@
         <f>TEXT(G68,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="I68" s="46"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="1:9" ht="10.8" x14ac:dyDescent="0.2">
       <c r="A69" s="36"/>
@@ -2959,6 +2965,171 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="189">
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
@@ -2983,171 +3154,6 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A7:B7 A9:B9 A11:B11 A13:B13 A15:B15 A17:B17 A19:B19 A21:B21 A23:B23 A25:B25 A27:B27 A29:B29 A31:B31 A33:B33 A35:B35 A37:B37 A39:B39 A41:B41 A43:B43 A45:B45 A47:B47 A49:B49 A51:B51 A53:B53 A55:B55 A57:B57 A59:B59 A61:B61 A63:B63 A65:B65 A67:B67">

--- a/app/views/calendars/excels/3month01.xlsx
+++ b/app/views/calendars/excels/3month01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C03739-C29C-47AE-A208-E76305438D1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D721208-FFDC-4DCA-81D7-E7BF7E940116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14376" yWindow="5112" windowWidth="23652" windowHeight="18384" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,18 +718,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -750,13 +738,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -764,7 +764,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1406,51 +1406,51 @@
       <c r="I4" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
+      <c r="A6" s="45">
         <v>2021</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="47">
         <f>YEAR(DATE(A6,C6+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="20">
         <f>MONTH(DATE(A6,C6+1,1))</f>
         <v>2</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="49">
         <f>YEAR(DATE(D6,F6+1,1))</f>
         <v>2021</v>
       </c>
-      <c r="H6" s="54"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="20">
         <f>MONTH(DATE(D6,F6+1,1))</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="str">
+      <c r="A7" s="53" t="str">
         <f>IF(ISNA(VLOOKUP(A8,休日,3,FALSE)),"",VLOOKUP(A8,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="47" t="str">
+      <c r="B7" s="54"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="55" t="str">
         <f>IF(ISNA(VLOOKUP(D8,休日,3,FALSE)),"",VLOOKUP(D8,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="47" t="str">
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="55" t="str">
         <f>IF(ISNA(VLOOKUP(G8,休日,3,FALSE)),"",VLOOKUP(G8,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
@@ -1482,24 +1482,24 @@
       <c r="I8" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="str">
+      <c r="A9" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A10,休日,3,FALSE)),"",VLOOKUP(A10,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="45" t="str">
+      <c r="B9" s="52"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D10,休日,3,FALSE)),"",VLOOKUP(D10,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="45" t="str">
+      <c r="E9" s="52"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G10,休日,3,FALSE)),"",VLOOKUP(G10,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
@@ -1531,24 +1531,24 @@
       <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="str">
+      <c r="A11" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A12,休日,3,FALSE)),"",VLOOKUP(A12,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="45" t="str">
+      <c r="B11" s="52"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D12,休日,3,FALSE)),"",VLOOKUP(D12,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="45" t="str">
+      <c r="E11" s="52"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G12,休日,3,FALSE)),"",VLOOKUP(G12,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
@@ -1580,24 +1580,24 @@
       <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="str">
+      <c r="A13" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A14,休日,3,FALSE)),"",VLOOKUP(A14,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="45" t="str">
+      <c r="B13" s="52"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D14,休日,3,FALSE)),"",VLOOKUP(D14,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="45" t="str">
+      <c r="E13" s="52"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G14,休日,3,FALSE)),"",VLOOKUP(G14,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="57"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
@@ -1629,24 +1629,24 @@
       <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="str">
+      <c r="A15" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A16,休日,3,FALSE)),"",VLOOKUP(A16,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="45" t="str">
+      <c r="B15" s="52"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D16,休日,3,FALSE)),"",VLOOKUP(D16,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="45" t="str">
+      <c r="E15" s="52"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G16,休日,3,FALSE)),"",VLOOKUP(G16,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="57"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
@@ -1678,24 +1678,24 @@
       <c r="I16" s="58"/>
     </row>
     <row r="17" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="str">
+      <c r="A17" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A18,休日,3,FALSE)),"",VLOOKUP(A18,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="45" t="str">
+      <c r="B17" s="52"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D18,休日,3,FALSE)),"",VLOOKUP(D18,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="45" t="str">
+      <c r="E17" s="52"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G18,休日,3,FALSE)),"",VLOOKUP(G18,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
@@ -1727,24 +1727,24 @@
       <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="str">
+      <c r="A19" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A20,休日,3,FALSE)),"",VLOOKUP(A20,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="45" t="str">
+      <c r="B19" s="52"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D20,休日,3,FALSE)),"",VLOOKUP(D20,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="45" t="str">
+      <c r="E19" s="52"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G20,休日,3,FALSE)),"",VLOOKUP(G20,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="57"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
@@ -1776,24 +1776,24 @@
       <c r="I20" s="58"/>
     </row>
     <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="str">
+      <c r="A21" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A22,休日,3,FALSE)),"",VLOOKUP(A22,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="45" t="str">
+      <c r="B21" s="52"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D22,休日,3,FALSE)),"",VLOOKUP(D22,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="45" t="str">
+      <c r="E21" s="52"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G22,休日,3,FALSE)),"",VLOOKUP(G22,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="57"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
@@ -1825,24 +1825,24 @@
       <c r="I22" s="58"/>
     </row>
     <row r="23" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="str">
+      <c r="A23" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A24,休日,3,FALSE)),"",VLOOKUP(A24,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="45" t="str">
+      <c r="B23" s="52"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D24,休日,3,FALSE)),"",VLOOKUP(D24,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="45" t="str">
+      <c r="E23" s="52"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G24,休日,3,FALSE)),"",VLOOKUP(G24,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="57"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
@@ -1874,24 +1874,24 @@
       <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="str">
+      <c r="A25" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A26,休日,3,FALSE)),"",VLOOKUP(A26,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="45" t="str">
+      <c r="B25" s="52"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D26,休日,3,FALSE)),"",VLOOKUP(D26,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="45" t="str">
+      <c r="E25" s="52"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G26,休日,3,FALSE)),"",VLOOKUP(G26,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="57"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
@@ -1923,24 +1923,24 @@
       <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="str">
+      <c r="A27" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A28,休日,3,FALSE)),"",VLOOKUP(A28,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="45" t="str">
+      <c r="B27" s="52"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D28,休日,3,FALSE)),"",VLOOKUP(D28,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="45" t="str">
+      <c r="E27" s="52"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G28,休日,3,FALSE)),"",VLOOKUP(G28,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="57"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
@@ -1972,24 +1972,24 @@
       <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="str">
+      <c r="A29" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A30,休日,3,FALSE)),"",VLOOKUP(A30,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="45" t="str">
+      <c r="B29" s="52"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D30,休日,3,FALSE)),"",VLOOKUP(D30,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="45" t="str">
+      <c r="E29" s="52"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G30,休日,3,FALSE)),"",VLOOKUP(G30,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="57"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
@@ -2021,24 +2021,24 @@
       <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="str">
+      <c r="A31" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A32,休日,3,FALSE)),"",VLOOKUP(A32,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="45" t="str">
+      <c r="B31" s="52"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D32,休日,3,FALSE)),"",VLOOKUP(D32,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="45" t="str">
+      <c r="E31" s="52"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G32,休日,3,FALSE)),"",VLOOKUP(G32,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="57"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
@@ -2070,24 +2070,24 @@
       <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="str">
+      <c r="A33" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A34,休日,3,FALSE)),"",VLOOKUP(A34,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="45" t="str">
+      <c r="B33" s="52"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D34,休日,3,FALSE)),"",VLOOKUP(D34,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="45" t="str">
+      <c r="E33" s="52"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G34,休日,3,FALSE)),"",VLOOKUP(G34,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="57"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
@@ -2119,24 +2119,24 @@
       <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45" t="str">
+      <c r="A35" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A36,休日,3,FALSE)),"",VLOOKUP(A36,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="45" t="str">
+      <c r="B35" s="52"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D36,休日,3,FALSE)),"",VLOOKUP(D36,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="45" t="str">
+      <c r="E35" s="52"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G36,休日,3,FALSE)),"",VLOOKUP(G36,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="57"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
@@ -2168,24 +2168,24 @@
       <c r="I36" s="58"/>
     </row>
     <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="str">
+      <c r="A37" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A38,休日,3,FALSE)),"",VLOOKUP(A38,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="45" t="str">
+      <c r="B37" s="52"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D38,休日,3,FALSE)),"",VLOOKUP(D38,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="45" t="str">
+      <c r="E37" s="52"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G38,休日,3,FALSE)),"",VLOOKUP(G38,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="57"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
@@ -2217,24 +2217,24 @@
       <c r="I38" s="58"/>
     </row>
     <row r="39" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="str">
+      <c r="A39" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A40,休日,3,FALSE)),"",VLOOKUP(A40,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="45" t="str">
+      <c r="B39" s="52"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D40,休日,3,FALSE)),"",VLOOKUP(D40,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="45" t="str">
+      <c r="E39" s="52"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G40,休日,3,FALSE)),"",VLOOKUP(G40,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="57"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
@@ -2266,24 +2266,24 @@
       <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="str">
+      <c r="A41" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A42,休日,3,FALSE)),"",VLOOKUP(A42,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="45" t="str">
+      <c r="B41" s="52"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D42,休日,3,FALSE)),"",VLOOKUP(D42,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="45" t="str">
+      <c r="E41" s="52"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G42,休日,3,FALSE)),"",VLOOKUP(G42,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="57"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
@@ -2315,24 +2315,24 @@
       <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45" t="str">
+      <c r="A43" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A44,休日,3,FALSE)),"",VLOOKUP(A44,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="45" t="str">
+      <c r="B43" s="52"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D44,休日,3,FALSE)),"",VLOOKUP(D44,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="45" t="str">
+      <c r="E43" s="52"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G44,休日,3,FALSE)),"",VLOOKUP(G44,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="57"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
@@ -2364,24 +2364,24 @@
       <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45" t="str">
+      <c r="A45" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A46,休日,3,FALSE)),"",VLOOKUP(A46,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="45" t="str">
+      <c r="B45" s="52"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D46,休日,3,FALSE)),"",VLOOKUP(D46,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="45" t="str">
+      <c r="E45" s="52"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G46,休日,3,FALSE)),"",VLOOKUP(G46,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="57"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
@@ -2413,24 +2413,24 @@
       <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45" t="str">
+      <c r="A47" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A48,休日,3,FALSE)),"",VLOOKUP(A48,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="45" t="str">
+      <c r="B47" s="52"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D48,休日,3,FALSE)),"",VLOOKUP(D48,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="45" t="str">
+      <c r="E47" s="52"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G48,休日,3,FALSE)),"",VLOOKUP(G48,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="57"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
@@ -2462,24 +2462,24 @@
       <c r="I48" s="58"/>
     </row>
     <row r="49" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45" t="str">
+      <c r="A49" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A50,休日,3,FALSE)),"",VLOOKUP(A50,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="45" t="str">
+      <c r="B49" s="52"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D50,休日,3,FALSE)),"",VLOOKUP(D50,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="45" t="str">
+      <c r="E49" s="52"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G50,休日,3,FALSE)),"",VLOOKUP(G50,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H49" s="46"/>
-      <c r="I49" s="57"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="59"/>
     </row>
     <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
@@ -2511,24 +2511,24 @@
       <c r="I50" s="58"/>
     </row>
     <row r="51" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="str">
+      <c r="A51" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A52,休日,3,FALSE)),"",VLOOKUP(A52,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="45" t="str">
+      <c r="B51" s="52"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D52,休日,3,FALSE)),"",VLOOKUP(D52,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="45" t="str">
+      <c r="E51" s="52"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G52,休日,3,FALSE)),"",VLOOKUP(G52,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="57"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
@@ -2560,24 +2560,24 @@
       <c r="I52" s="58"/>
     </row>
     <row r="53" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="str">
+      <c r="A53" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A54,休日,3,FALSE)),"",VLOOKUP(A54,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="45" t="str">
+      <c r="B53" s="52"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D54,休日,3,FALSE)),"",VLOOKUP(D54,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="45" t="str">
+      <c r="E53" s="52"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G54,休日,3,FALSE)),"",VLOOKUP(G54,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="57"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
@@ -2609,24 +2609,24 @@
       <c r="I54" s="58"/>
     </row>
     <row r="55" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="str">
+      <c r="A55" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A56,休日,3,FALSE)),"",VLOOKUP(A56,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="45" t="str">
+      <c r="B55" s="52"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D56,休日,3,FALSE)),"",VLOOKUP(D56,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="45" t="str">
+      <c r="E55" s="52"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G56,休日,3,FALSE)),"",VLOOKUP(G56,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="57"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="59"/>
     </row>
     <row r="56" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
@@ -2658,24 +2658,24 @@
       <c r="I56" s="58"/>
     </row>
     <row r="57" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="str">
+      <c r="A57" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A58,休日,3,FALSE)),"",VLOOKUP(A58,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="45" t="str">
+      <c r="B57" s="52"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D58,休日,3,FALSE)),"",VLOOKUP(D58,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E57" s="46"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="45" t="str">
+      <c r="E57" s="52"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G58,休日,3,FALSE)),"",VLOOKUP(G58,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H57" s="46"/>
-      <c r="I57" s="57"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
@@ -2707,24 +2707,24 @@
       <c r="I58" s="58"/>
     </row>
     <row r="59" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45" t="str">
+      <c r="A59" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A60,休日,3,FALSE)),"",VLOOKUP(A60,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="45" t="str">
+      <c r="B59" s="52"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D60,休日,3,FALSE)),"",VLOOKUP(D60,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E59" s="46"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="45" t="str">
+      <c r="E59" s="52"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G60,休日,3,FALSE)),"",VLOOKUP(G60,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H59" s="46"/>
-      <c r="I59" s="57"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
@@ -2756,24 +2756,24 @@
       <c r="I60" s="58"/>
     </row>
     <row r="61" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="str">
+      <c r="A61" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A62,休日,3,FALSE)),"",VLOOKUP(A62,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="45" t="str">
+      <c r="B61" s="52"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D62,休日,3,FALSE)),"",VLOOKUP(D62,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="45" t="str">
+      <c r="E61" s="52"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G62,休日,3,FALSE)),"",VLOOKUP(G62,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="57"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
@@ -2805,24 +2805,24 @@
       <c r="I62" s="58"/>
     </row>
     <row r="63" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45" t="str">
+      <c r="A63" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A64,休日,3,FALSE)),"",VLOOKUP(A64,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="45" t="str">
+      <c r="B63" s="52"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D64,休日,3,FALSE)),"",VLOOKUP(D64,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E63" s="46"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="45" t="str">
+      <c r="E63" s="52"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G64,休日,3,FALSE)),"",VLOOKUP(G64,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="57"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
@@ -2854,24 +2854,24 @@
       <c r="I64" s="58"/>
     </row>
     <row r="65" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="str">
+      <c r="A65" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A66,休日,3,FALSE)),"",VLOOKUP(A66,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="45" t="str">
+      <c r="B65" s="52"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D66,休日,3,FALSE)),"",VLOOKUP(D66,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="52"/>
       <c r="F65" s="60"/>
-      <c r="G65" s="45" t="str">
+      <c r="G65" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G66,休日,3,FALSE)),"",VLOOKUP(G66,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H65" s="46"/>
-      <c r="I65" s="57"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
@@ -2882,7 +2882,7 @@
         <f>TEXT(A66,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="C66" s="59"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="30">
         <f>D64+1</f>
         <v>44257</v>
@@ -2903,24 +2903,24 @@
       <c r="I66" s="58"/>
     </row>
     <row r="67" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="str">
+      <c r="A67" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(A68,休日,3,FALSE)),"",VLOOKUP(A68,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="45" t="str">
+      <c r="B67" s="52"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(D68,休日,3,FALSE)),"",VLOOKUP(D68,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="45" t="str">
+      <c r="E67" s="52"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="51" t="str">
         <f>IF(ISNA(VLOOKUP(G68,休日,3,FALSE)),"",VLOOKUP(G68,休日,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H67" s="46"/>
-      <c r="I67" s="57"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34">
@@ -2931,7 +2931,7 @@
         <f>TEXT(A68,"aaa")</f>
         <v>日</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="57"/>
       <c r="D68" s="34">
         <f>D66+1</f>
         <v>44258</v>
@@ -2940,7 +2940,7 @@
         <f>TEXT(D68,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="F68" s="59"/>
+      <c r="F68" s="57"/>
       <c r="G68" s="34">
         <f>G66+1</f>
         <v>44286</v>
@@ -2949,7 +2949,7 @@
         <f>TEXT(G68,"aaa")</f>
         <v>水</v>
       </c>
-      <c r="I68" s="59"/>
+      <c r="I68" s="57"/>
     </row>
     <row r="69" spans="1:9" ht="10.8" x14ac:dyDescent="0.2">
       <c r="A69" s="36"/>
@@ -2965,6 +2965,171 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="189">
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
@@ -2989,171 +3154,6 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A7:B7 A9:B9 A11:B11 A13:B13 A15:B15 A17:B17 A19:B19 A21:B21 A23:B23 A25:B25 A27:B27 A29:B29 A31:B31 A33:B33 A35:B35 A37:B37 A39:B39 A41:B41 A43:B43 A45:B45 A47:B47 A49:B49 A51:B51 A53:B53 A55:B55 A57:B57 A59:B59 A61:B61 A63:B63 A65:B65 A67:B67">
